--- a/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_active.xlsx
+++ b/F_dataset/DUD-E/PLK1/PLK1_prepare/PLK1_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,846 +6741,6 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL2402083</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-c3cn[nH]c3-c3nccs3)nc2N1C1CCOCC1</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>425.52</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5</v>
-      </c>
-      <c r="L109" t="n">
-        <v>3</v>
-      </c>
-      <c r="M109" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>250</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL2406145</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged Plk1 (unknown origin) assessed as inhibition of DEKTDDED phosphorylation at Thr1342 after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL508139</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Cc1nn(-c2cccc(C#N)c2)c2cc(N[C@@H](C)c3ccccc3)ncc12</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>353.43</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4</v>
-      </c>
-      <c r="M110" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>412</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL953116</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Inhibition of Plk1</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CHEMBL4531713</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc2c([n+]1[O-])C(SC[C@H](N)C(=O)O)C(SC(F)(F)F)=CC2[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>460.44</v>
-      </c>
-      <c r="H111" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" t="n">
-        <v>9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2</v>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="n">
-        <v>176.49</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>400</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL4351047</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CHEMBL515457</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>CCn1c(=O)/c(=C\Nc2ccc(OCCN(C)C)cc2)s/c1=C(/C#N)C(=O)NCC(F)F</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>465.53</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>10</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2</v>
-      </c>
-      <c r="L112" t="n">
-        <v>2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>99.39</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>74</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL985261</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CHEMBL2207846</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>CC(=O)N1CCC[C@H]1C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](Cc1cnc[nH]1)C(=O)N[C@@H](CO)C(=O)N[C@H](C(N)=O)[C@@H](C)OP(=O)(O)O</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>674.65</v>
-      </c>
-      <c r="H113" t="n">
-        <v>9</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12</v>
-      </c>
-      <c r="J113" t="n">
-        <v>17</v>
-      </c>
-      <c r="K113" t="n">
-        <v>2</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>620</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL4387037</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 PBD (unknown origin) using GPMQSpTPLNG-OH as fluorescent probe incubated for 30 mins by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CHEMBL1209018</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CCN1CCN(CCCn2cc(-c3ccc4c(c3)ncn4-c3cc(O[C@H](C)c4ccccc4Cl)c(C(N)=O)s3)cn2)CC1</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>618.21</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11</v>
-      </c>
-      <c r="K114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>1</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>CHEMBL1212570</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 by SPA assay</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>CHEMBL559845</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Cn1nc(C(N)=O)c2c1-c1nc(Nc3ccccc3)ncc1CC2</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>320.36</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4</v>
-      </c>
-      <c r="L115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M115" t="n">
-        <v>98.72</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>68</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>CHEMBL1809664</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 assessed as [33P]-gamma-ATP incorporation into substrate by gamma counting</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>CHEMBL3260241</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>COc1cccc(/C=C/C(=O)NNC(=O)c2ccc3c(c2)OCCO3)c1</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>354.36</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2</v>
-      </c>
-      <c r="M116" t="n">
-        <v>85.89</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>30</v>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>CHEMBL3268272</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Inhibition of PLK1 (unknown origin) using RRRDELMEASFADQEAKV as substrate after 20 mins by liquid scintillation counting analysis</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>CHEMBL2205435</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>COc1ccc(Nc2nccc(Nc3c(N[C@H](C)C(C)(C)C)c(=O)c3=O)n2)c(OC)c1</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>425.49</v>
-      </c>
-      <c r="H117" t="n">
-        <v>3</v>
-      </c>
-      <c r="I117" t="n">
-        <v>9</v>
-      </c>
-      <c r="J117" t="n">
-        <v>8</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3</v>
-      </c>
-      <c r="L117" t="n">
-        <v>3</v>
-      </c>
-      <c r="M117" t="n">
-        <v>114.47</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
-        <v>771</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>CHEMBL2210942</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant GST-tagged PLK1 using biotin-ahx-AKMETTFYDDALNASFLPSEKKK-amide as substrate after 30 mins by scintillation counting analysis in presence of gamma-[33P]ATP</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H118" t="n">
-        <v>3</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="n">
-        <v>8</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5</v>
-      </c>
-      <c r="M118" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
-        <v>220</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>CHEMBL1908672</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Binding constant for PLK1 kinase domain</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
